--- a/java_project_testing/planning/project-plan.xlsx
+++ b/java_project_testing/planning/project-plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Lehrlingsverwaltung\java_project_testing\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tietsc\Documents\Lehrlingsverwaltung\java_project_testing\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100010_{847B847B-F1CE-46DF-B2BF-2F0788A9192C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -195,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,27 +596,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% abgeschlossen" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Aktivität" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Bezeichnung" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="% abgeschlossen" xfId="16"/>
+    <cellStyle name="Aktivität" xfId="2"/>
+    <cellStyle name="Bezeichnung" xfId="5"/>
     <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Planlegende" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Projektüberschriften" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Prozent abgeschlossen" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="15"/>
+    <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="18"/>
+    <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="17"/>
+    <cellStyle name="Planlegende" xfId="14"/>
+    <cellStyle name="Projektüberschriften" xfId="4"/>
+    <cellStyle name="Prozent abgeschlossen" xfId="6"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="7"/>
     <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Überschriften für Zeiträume" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Zeitraumwert" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Überschriften für Zeiträume" xfId="3"/>
+    <cellStyle name="Zeitraumwert" xfId="13"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -761,7 +782,12 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -999,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1007,7 +1033,7 @@
   <dimension ref="B1:BO15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1330,10 +1356,14 @@
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,10 +1376,14 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,60 +1546,60 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO15">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>ProzentAbgeschlossenHinter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>Tatsächlich</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>TatsächlichHinter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>H$4=Zeitraum_ausgewählt</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:BO16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>H$4=Zeitraum_ausgewählt</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Projektplaner verwendet Zeiträume als Intervalle. Start=1 bedeutet Zeitraum 1, und Dauer=5 bedeutet, dass das Projekt 5 Zeiträume ab dem Startzeitraum umfasst. Geben Sie von B5 an Daten ein, um das Diagramm zu aktualisieren" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Geben Sie einen Wert von 1 bis 60 ein, oder wählen Sie in der Liste einen Zeitraum aus – drücken Sie ABBRECHEN, ALT+NACH-UNTEN und dann die EINGABETASTE, um einen Wert auszuwählen" prompt="Geben Sie einen Zeitraum im Bereich von 1 bis 60 ein, oder wählen Sie einen Zeitraum in der Liste aus. Drücken Sie ALT+NACH-UNTEN, um in der Liste zu navigieren, und dann EINGABE, um einen Wert auszuwählen." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Projektplaner verwendet Zeiträume als Intervalle. Start=1 bedeutet Zeitraum 1, und Dauer=5 bedeutet, dass das Projekt 5 Zeiträume ab dem Startzeitraum umfasst. Geben Sie von B5 an Daten ein, um das Diagramm zu aktualisieren" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Geben Sie einen Wert von 1 bis 60 ein, oder wählen Sie in der Liste einen Zeitraum aus – drücken Sie ABBRECHEN, ALT+NACH-UNTEN und dann die EINGABETASTE, um einen Wert auszuwählen" prompt="Geben Sie einen Zeitraum im Bereich von 1 bis 60 ein, oder wählen Sie einen Zeitraum in der Liste aus. Drücken Sie ALT+NACH-UNTEN, um in der Liste zu navigieren, und dann EINGABE, um einen Wert auszuwählen." sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die Dauer des Plans an" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die tatsächliche Dauer an" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt den Prozentsatz der Fertigstellung des Projekts an" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die tatsächliche Dauer über den Plan hinaus an" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt den Prozentsatz der Fertigstellung des Projekts über den Plan hinaus an" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeiträume sind von 1 bis 60 verzeichnet, von Zelle H4 an bis zu Zelle BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie Aktivitäten in Spalte B ein, beginnend mit Zelle B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den Startzeitraum des Plans in Spalte C ein, beginnend mit Zelle C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Dauer in Zeiträumen für den Plan in Spalte D ein, beginnend mit Zelle D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den tatsächlichen Startzeitraum des Plans in Spalte E ein, beginnend mit Zelle E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die tatsächliche Dauer in Zeiträumen für den Plan in Spalte F ein, beginnend mit Zelle F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den Prozentsatz der Fertigstellung des Projekts in Spalte G ein, beginnend mit Zelle G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titel des Projekts Geben Sie in dieser Zelle einen neuen Titel ein. Heben Sie einen Zeitraum in H2 hervor. Die Diagrammlegende befindet sich in J2 bis AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wählen Sie einen hervorzuhebenden Zeitraum in H2 aus. Eine Diagrammlegende befindet sich in J2 bis AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die Dauer des Plans an" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die tatsächliche Dauer an" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt den Prozentsatz der Fertigstellung des Projekts an" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt die tatsächliche Dauer über den Plan hinaus an" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Diese Legendenzelle gibt den Prozentsatz der Fertigstellung des Projekts über den Plan hinaus an" sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zeiträume sind von 1 bis 60 verzeichnet, von Zelle H4 an bis zu Zelle BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie Aktivitäten in Spalte B ein, beginnend mit Zelle B5_x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den Startzeitraum des Plans in Spalte C ein, beginnend mit Zelle C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die Dauer in Zeiträumen für den Plan in Spalte D ein, beginnend mit Zelle D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den tatsächlichen Startzeitraum des Plans in Spalte E ein, beginnend mit Zelle E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie die tatsächliche Dauer in Zeiträumen für den Plan in Spalte F ein, beginnend mit Zelle F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie den Prozentsatz der Fertigstellung des Projekts in Spalte G ein, beginnend mit Zelle G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titel des Projekts Geben Sie in dieser Zelle einen neuen Titel ein. Heben Sie einen Zeitraum in H2 hervor. Die Diagrammlegende befindet sich in J2 bis AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wählen Sie einen hervorzuhebenden Zeitraum in H2 aus. Eine Diagrammlegende befindet sich in J2 bis AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
